--- a/_nba/player_contracts.xlsx
+++ b/_nba/player_contracts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PratikThanki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PratikThanki/Google Drive/GitHub/statflows/_nba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3EB523-412D-0245-A842-7B0C80FF6B63}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97193B43-7335-DF4A-83AD-4ABB98819C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{57231C66-0540-B44B-954C-65C681D8E70E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{57231C66-0540-B44B-954C-65C681D8E70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4728,7 +4728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5F4222-76C2-C04A-9771-5D9BF9516AC3}">
   <dimension ref="A1:J487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
